--- a/biology/Zoologie/Darevskia_rudis/Darevskia_rudis.xlsx
+++ b/biology/Zoologie/Darevskia_rudis/Darevskia_rudis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Darevskia rudis est une espèce de sauriens de la famille des Lacertidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Darevskia rudis est une espèce de sauriens de la famille des Lacertidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Géorgie, en Arménie, en Azerbaïdjan, en Ciscaucasie en Russie et dans le nord de la Turquie. Elle est présente jusqu'à 2 000 m d'altitude[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Géorgie, en Arménie, en Azerbaïdjan, en Ciscaucasie en Russie et dans le nord de la Turquie. Elle est présente jusqu'à 2 000 m d'altitude.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 août 2013)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 août 2013) :
 Darevskia rudis bischoffi (Böhme &amp; Budak, 1977)
 Darevskia rudis bolkardaghica Arribas, Ilgaz, Kumlutaş, Durmuş, Avci &amp; Üzüm, 2013
 Darevskia rudis chechenica (Eiselt &amp; Darevsky, 1991)
@@ -580,10 +596,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Ryabinina, et al. en 2003 Darevskia rudis obscura et Darevskia rudis bischoffi sont des espèces distinctes[3].
-Darevskia rudis bithynica a été élevée au rang d'espèce[4] sous le nom de Darevskia bithynica, avec Darevskia rudis tristis comme sous-espèce.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Ryabinina, et al. en 2003 Darevskia rudis obscura et Darevskia rudis bischoffi sont des espèces distinctes.
+Darevskia rudis bithynica a été élevée au rang d'espèce sous le nom de Darevskia bithynica, avec Darevskia rudis tristis comme sous-espèce.
 </t>
         </is>
       </c>
@@ -612,7 +630,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Arribas, Ilgaz, Kumlutaş, Durmuş, Avci &amp; Üzüm, 2013 : External morphology and osteology of Darevskia rudis (Bedriaga, 1886), with a taxonomic revision of the Pontic and Small-Caucasus populations (Squamata: Lacertidae). Zootaxa, no 3626 (4), p. 401–428.
 Bedriaga, 1886 : Beiträge zur Kenntnis der Lacertiden-Familie (Lacerta, Algiroides, Tropidosaura, Zerzumia, Bettaia). Abhandlungen Senckenbergische Naturforschende Gesellschaft (Frankfurt), vol. 14, p. 17-444 (texte intégral).
